--- a/LQDNhaTrang/Bang Diem/DS Trung tuyen 10 LQD 2019-2020 theo mon chuyen (1).xlsx
+++ b/LQDNhaTrang/Bang Diem/DS Trung tuyen 10 LQD 2019-2020 theo mon chuyen (1).xlsx
@@ -17349,7 +17349,7 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X18" sqref="A1:X18"/>
+      <selection activeCell="Q15" sqref="A15:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
